--- a/semrush.cont.xlsx
+++ b/semrush.cont.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4219" uniqueCount="4210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4252" uniqueCount="4241">
   <si>
     <t>Rank</t>
   </si>
@@ -12646,6 +12646,99 @@
   </si>
   <si>
     <t>https://vk.com/ucheba_rus</t>
+  </si>
+  <si>
+    <t>8 (495) 369-33-00</t>
+  </si>
+  <si>
+    <t>(495) 937-70-56</t>
+  </si>
+  <si>
+    <t>8 800 600-95-25</t>
+  </si>
+  <si>
+    <t>8 (495) 651-62-88</t>
+  </si>
+  <si>
+    <t>8 (34922) 2-24-63</t>
+  </si>
+  <si>
+    <t>https://vk.com/cybersportru</t>
+  </si>
+  <si>
+    <t>(495) 232 10 11 </t>
+  </si>
+  <si>
+    <t>(812) 327-06-27</t>
+  </si>
+  <si>
+    <t>(495) 640-47-80, доб. 702</t>
+  </si>
+  <si>
+    <t>https://vk.com/bankiros</t>
+  </si>
+  <si>
+    <t>+7(495) 633-5-633</t>
+  </si>
+  <si>
+    <t>https://vk.com/marieclairerussia</t>
+  </si>
+  <si>
+    <t>+7 987 227-89-17</t>
+  </si>
+  <si>
+    <t>https://vk.com/ppt_ru</t>
+  </si>
+  <si>
+    <t>https://vk.com/europaplus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (495) 637 69 79, доб. 159</t>
+  </si>
+  <si>
+    <t>+7 (4242) 511-100</t>
+  </si>
+  <si>
+    <t>https://vk.com/public366977</t>
+  </si>
+  <si>
+    <t>8 (495) 785-01-13</t>
+  </si>
+  <si>
+    <t>https://vk.com/glavbukh</t>
+  </si>
+  <si>
+    <t>+7 (916) 710-7449</t>
+  </si>
+  <si>
+    <t>https://vk.com/7dach</t>
+  </si>
+  <si>
+    <t>+7(495) 777-02-78</t>
+  </si>
+  <si>
+    <t>https://vk.com/vtomskeru</t>
+  </si>
+  <si>
+    <t>+7 (3822) 90-29-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (812) 618-99-88</t>
+  </si>
+  <si>
+    <t>https://vk.com/smclinic_spb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 495 775 09 44 </t>
+  </si>
+  <si>
+    <t>+7 (914) 677-77-33</t>
+  </si>
+  <si>
+    <t>https://vk.com/apteka.monastyrev</t>
+  </si>
+  <si>
+    <t>+7 (4212) 75-19-50</t>
   </si>
 </sst>
 </file>
@@ -12994,13 +13087,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A834" workbookViewId="0">
+      <selection activeCell="B854" sqref="B854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="9" max="9" width="15.1796875" customWidth="1"/>
+    <col min="9" max="9" width="24.26953125" customWidth="1"/>
     <col min="10" max="10" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15790,8 +15883,8 @@
       <c r="H87">
         <v>308</v>
       </c>
-      <c r="I87" t="e">
-        <v>#N/A</v>
+      <c r="I87" t="s">
+        <v>4210</v>
       </c>
       <c r="J87" t="e">
         <v>#N/A</v>
@@ -15886,8 +15979,8 @@
       <c r="H90">
         <v>0</v>
       </c>
-      <c r="I90" t="e">
-        <v>#N/A</v>
+      <c r="I90" t="s">
+        <v>4211</v>
       </c>
       <c r="J90" t="e">
         <v>#N/A</v>
@@ -16014,8 +16107,8 @@
       <c r="H94">
         <v>9557</v>
       </c>
-      <c r="I94" t="e">
-        <v>#N/A</v>
+      <c r="I94" t="s">
+        <v>4212</v>
       </c>
       <c r="J94" t="e">
         <v>#N/A</v>
@@ -29172,8 +29265,8 @@
       <c r="H505">
         <v>3415</v>
       </c>
-      <c r="I505" t="e">
-        <v>#N/A</v>
+      <c r="I505" t="s">
+        <v>4213</v>
       </c>
       <c r="J505" t="e">
         <v>#N/A</v>
@@ -29332,8 +29425,8 @@
       <c r="H510">
         <v>0</v>
       </c>
-      <c r="I510" t="e">
-        <v>#N/A</v>
+      <c r="I510" t="s">
+        <v>4214</v>
       </c>
       <c r="J510" t="e">
         <v>#N/A</v>
@@ -29527,8 +29620,8 @@
       <c r="I516" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J516" t="e">
-        <v>#N/A</v>
+      <c r="J516" s="1" t="s">
+        <v>4215</v>
       </c>
     </row>
     <row r="517" spans="1:10">
@@ -30132,8 +30225,8 @@
       <c r="H535">
         <v>0</v>
       </c>
-      <c r="I535" t="e">
-        <v>#N/A</v>
+      <c r="I535" t="s">
+        <v>4216</v>
       </c>
       <c r="J535" t="e">
         <v>#N/A</v>
@@ -31060,8 +31153,8 @@
       <c r="H564">
         <v>0</v>
       </c>
-      <c r="I564" t="e">
-        <v>#N/A</v>
+      <c r="I564" t="s">
+        <v>4217</v>
       </c>
       <c r="J564" t="e">
         <v>#N/A</v>
@@ -31924,11 +32017,11 @@
       <c r="H591">
         <v>6697</v>
       </c>
-      <c r="I591" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J591" t="e">
-        <v>#N/A</v>
+      <c r="I591" t="s">
+        <v>4218</v>
+      </c>
+      <c r="J591" s="1" t="s">
+        <v>4219</v>
       </c>
     </row>
     <row r="592" spans="1:10">
@@ -32980,8 +33073,8 @@
       <c r="H624">
         <v>0</v>
       </c>
-      <c r="I624" t="e">
-        <v>#N/A</v>
+      <c r="I624" t="s">
+        <v>4220</v>
       </c>
       <c r="J624" t="e">
         <v>#N/A</v>
@@ -33079,8 +33172,8 @@
       <c r="I627" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J627" t="e">
-        <v>#N/A</v>
+      <c r="J627" s="1" t="s">
+        <v>4221</v>
       </c>
     </row>
     <row r="628" spans="1:10">
@@ -33300,8 +33393,8 @@
       <c r="H634">
         <v>0</v>
       </c>
-      <c r="I634" t="e">
-        <v>#N/A</v>
+      <c r="I634" t="s">
+        <v>4222</v>
       </c>
       <c r="J634" t="e">
         <v>#N/A</v>
@@ -33655,8 +33748,8 @@
       <c r="I645" t="e">
         <v>#N/A</v>
       </c>
-      <c r="J645" t="e">
-        <v>#N/A</v>
+      <c r="J645" s="1" t="s">
+        <v>4223</v>
       </c>
     </row>
     <row r="646" spans="1:10">
@@ -33716,11 +33809,11 @@
       <c r="H647">
         <v>0</v>
       </c>
-      <c r="I647" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J647" t="e">
-        <v>#N/A</v>
+      <c r="I647" t="s">
+        <v>2470</v>
+      </c>
+      <c r="J647" t="s">
+        <v>4224</v>
       </c>
     </row>
     <row r="648" spans="1:10">
@@ -34196,8 +34289,8 @@
       <c r="H662">
         <v>0</v>
       </c>
-      <c r="I662" t="e">
-        <v>#N/A</v>
+      <c r="I662" t="s">
+        <v>4225</v>
       </c>
       <c r="J662" t="e">
         <v>#N/A</v>
@@ -34516,11 +34609,11 @@
       <c r="H672">
         <v>4</v>
       </c>
-      <c r="I672" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J672" t="e">
-        <v>#N/A</v>
+      <c r="I672" t="s">
+        <v>4226</v>
+      </c>
+      <c r="J672" s="1" t="s">
+        <v>4227</v>
       </c>
     </row>
     <row r="673" spans="1:10">
@@ -34900,11 +34993,11 @@
       <c r="H684">
         <v>128</v>
       </c>
-      <c r="I684" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J684" t="e">
-        <v>#N/A</v>
+      <c r="I684" t="s">
+        <v>4228</v>
+      </c>
+      <c r="J684" s="1" t="s">
+        <v>4229</v>
       </c>
     </row>
     <row r="685" spans="1:10">
@@ -36724,11 +36817,11 @@
       <c r="H741">
         <v>0</v>
       </c>
-      <c r="I741" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J741" t="e">
-        <v>#N/A</v>
+      <c r="I741" t="s">
+        <v>4230</v>
+      </c>
+      <c r="J741" t="s">
+        <v>4231</v>
       </c>
     </row>
     <row r="742" spans="1:10">
@@ -37396,8 +37489,8 @@
       <c r="H762">
         <v>0</v>
       </c>
-      <c r="I762">
-        <v>74957772772</v>
+      <c r="I762" t="s">
+        <v>4232</v>
       </c>
       <c r="J762" t="s">
         <v>967</v>
@@ -37876,11 +37969,11 @@
       <c r="H777">
         <v>0</v>
       </c>
-      <c r="I777" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J777" t="e">
-        <v>#N/A</v>
+      <c r="I777" t="s">
+        <v>4234</v>
+      </c>
+      <c r="J777" s="1" t="s">
+        <v>4233</v>
       </c>
     </row>
     <row r="778" spans="1:10">
@@ -38388,8 +38481,8 @@
       <c r="H793">
         <v>635</v>
       </c>
-      <c r="I793" t="e">
-        <v>#N/A</v>
+      <c r="I793" t="s">
+        <v>4220</v>
       </c>
       <c r="J793" t="e">
         <v>#N/A</v>
@@ -38484,11 +38577,11 @@
       <c r="H796">
         <v>4270</v>
       </c>
-      <c r="I796" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J796" t="e">
-        <v>#N/A</v>
+      <c r="I796" t="s">
+        <v>4235</v>
+      </c>
+      <c r="J796" s="1" t="s">
+        <v>4236</v>
       </c>
     </row>
     <row r="797" spans="1:10">
@@ -39188,8 +39281,8 @@
       <c r="H818">
         <v>3490</v>
       </c>
-      <c r="I818" t="e">
-        <v>#N/A</v>
+      <c r="I818" t="s">
+        <v>4237</v>
       </c>
       <c r="J818" t="e">
         <v>#N/A</v>
@@ -39380,11 +39473,11 @@
       <c r="H824">
         <v>242</v>
       </c>
-      <c r="I824" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J824" t="e">
-        <v>#N/A</v>
+      <c r="I824" t="s">
+        <v>4238</v>
+      </c>
+      <c r="J824" s="1" t="s">
+        <v>4239</v>
       </c>
     </row>
     <row r="825" spans="1:10">
@@ -39508,8 +39601,8 @@
       <c r="H828">
         <v>1116</v>
       </c>
-      <c r="I828" t="e">
-        <v>#N/A</v>
+      <c r="I828" t="s">
+        <v>4240</v>
       </c>
       <c r="J828" t="e">
         <v>#N/A</v>
@@ -109057,9 +109150,18 @@
     <hyperlink ref="J381" r:id="rId2"/>
     <hyperlink ref="J398" r:id="rId3"/>
     <hyperlink ref="J456" r:id="rId4"/>
+    <hyperlink ref="J516" r:id="rId5"/>
+    <hyperlink ref="J591" r:id="rId6"/>
+    <hyperlink ref="J627" r:id="rId7"/>
+    <hyperlink ref="J645" r:id="rId8"/>
+    <hyperlink ref="J672" r:id="rId9"/>
+    <hyperlink ref="J684" r:id="rId10"/>
+    <hyperlink ref="J777" r:id="rId11"/>
+    <hyperlink ref="J796" r:id="rId12"/>
+    <hyperlink ref="J824" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId14"/>
 </worksheet>
 </file>
 
